--- a/data_files/TEMOA-Piedmont/TEMOA_Piedmont_prova_1_model/prova_1.xlsx
+++ b/data_files/TEMOA-Piedmont/TEMOA_Piedmont_prova_1_model/prova_1.xlsx
@@ -10620,7 +10620,7 @@
         <v>680</v>
       </c>
       <c r="E2">
-        <v>42.12143219199999</v>
+        <v>42.121432192</v>
       </c>
       <c r="F2">
         <v>39.05249800000001</v>
@@ -10690,7 +10690,7 @@
         <v>33.55398391651597</v>
       </c>
       <c r="I4">
-        <v>32.50138840798541</v>
+        <v>32.50138840798542</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10710,7 +10710,7 @@
         <v>2087.76832542937</v>
       </c>
       <c r="F5">
-        <v>1917.300750938001</v>
+        <v>1917.300750938</v>
       </c>
       <c r="G5">
         <v>1930.569287808864</v>
@@ -10765,7 +10765,7 @@
         <v>681</v>
       </c>
       <c r="E7">
-        <v>0.006960200000000305</v>
+        <v>0.006960200000000304</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10816,7 +10816,7 @@
         <v>681</v>
       </c>
       <c r="E10">
-        <v>3.01270276020013</v>
+        <v>3.012702760200131</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11013,7 +11013,7 @@
         <v>681</v>
       </c>
       <c r="G23">
-        <v>256.4724565179579</v>
+        <v>256.472456517958</v>
       </c>
       <c r="H23">
         <v>748.0368502933454</v>
@@ -11036,13 +11036,13 @@
         <v>681</v>
       </c>
       <c r="G24">
-        <v>2.468718832793178</v>
+        <v>2.468718832793179</v>
       </c>
       <c r="H24">
         <v>7.200354708705998</v>
       </c>
       <c r="I24">
-        <v>9.91001954356997</v>
+        <v>9.910019543569971</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11062,7 +11062,7 @@
         <v>257.250240101334</v>
       </c>
       <c r="H25">
-        <v>750.3053620462938</v>
+        <v>750.305362046294</v>
       </c>
       <c r="I25">
         <v>1032.663125961524</v>
@@ -11082,7 +11082,7 @@
         <v>681</v>
       </c>
       <c r="G26">
-        <v>256.4724565179579</v>
+        <v>256.472456517958</v>
       </c>
       <c r="H26">
         <v>748.0368502933454</v>
@@ -12196,7 +12196,7 @@
         <v>0.004594490482772459</v>
       </c>
       <c r="H82">
-        <v>0.005588156028368794</v>
+        <v>0.005588156028368795</v>
       </c>
       <c r="I82">
         <v>0.005587311849944162</v>
@@ -12274,7 +12274,7 @@
         <v>26.85194821059814</v>
       </c>
       <c r="H85">
-        <v>36.55211435749669</v>
+        <v>36.55211435749668</v>
       </c>
       <c r="I85">
         <v>37.22978662546421</v>
@@ -12300,7 +12300,7 @@
         <v>1369.449358740505</v>
       </c>
       <c r="H86">
-        <v>1864.15783223233</v>
+        <v>1864.157832232331</v>
       </c>
       <c r="I86">
         <v>1898.719117898675</v>
@@ -12346,7 +12346,7 @@
         <v>681</v>
       </c>
       <c r="F88">
-        <v>369.0895706035154</v>
+        <v>369.0895706035153</v>
       </c>
       <c r="G88">
         <v>1377.580616875914</v>
@@ -12378,7 +12378,7 @@
         <v>1369.449358740505</v>
       </c>
       <c r="H89">
-        <v>1864.15783223233</v>
+        <v>1864.157832232331</v>
       </c>
       <c r="I89">
         <v>1898.719117898675</v>
@@ -12931,10 +12931,10 @@
         <v>0.3674482576086582</v>
       </c>
       <c r="F115">
-        <v>0.3674482576086584</v>
+        <v>0.3674482576086585</v>
       </c>
       <c r="G115">
-        <v>0.07348965152173169</v>
+        <v>0.07348965152173167</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -12957,7 +12957,7 @@
         <v>18.73986113804158</v>
       </c>
       <c r="G116">
-        <v>3.747972227608315</v>
+        <v>3.747972227608314</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -13003,7 +13003,7 @@
         <v>18.85113115132289</v>
       </c>
       <c r="G118">
-        <v>3.770226230264578</v>
+        <v>3.770226230264577</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -13026,7 +13026,7 @@
         <v>18.73986113804158</v>
       </c>
       <c r="G119">
-        <v>3.747972227608315</v>
+        <v>3.747972227608314</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -13153,7 +13153,7 @@
         <v>681</v>
       </c>
       <c r="E127">
-        <v>0.5294268246153851</v>
+        <v>0.529426824615385</v>
       </c>
       <c r="I127">
         <v>0.4313264264882943</v>
@@ -13176,7 +13176,7 @@
         <v>11.83951535457122</v>
       </c>
       <c r="I128">
-        <v>9.645706662012032</v>
+        <v>9.645706662012028</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -13908,13 +13908,13 @@
         <v>682</v>
       </c>
       <c r="E170">
-        <v>5.998521215391665</v>
+        <v>5.998521215391667</v>
       </c>
       <c r="F170">
         <v>3.940600122473976</v>
       </c>
       <c r="G170">
-        <v>1.313533374157992</v>
+        <v>1.313533374157991</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -13931,13 +13931,13 @@
         <v>682</v>
       </c>
       <c r="E171">
-        <v>2588.592616795942</v>
+        <v>2588.592616795943</v>
       </c>
       <c r="F171">
         <v>1700.520514390693</v>
       </c>
       <c r="G171">
-        <v>566.840171463564</v>
+        <v>566.8401714635639</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -13957,10 +13957,10 @@
         <v>24.91693427931924</v>
       </c>
       <c r="F172">
-        <v>16.36864666258421</v>
+        <v>16.3686466625842</v>
       </c>
       <c r="G172">
-        <v>5.456215554194735</v>
+        <v>5.456215554194736</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -13977,7 +13977,7 @@
         <v>682</v>
       </c>
       <c r="E173">
-        <v>2596.442835368056</v>
+        <v>2596.442835368055</v>
       </c>
       <c r="F173">
         <v>1705.677547458665</v>
@@ -14000,13 +14000,13 @@
         <v>682</v>
       </c>
       <c r="E174">
-        <v>2588.592616795942</v>
+        <v>2588.592616795943</v>
       </c>
       <c r="F174">
         <v>1700.520514390693</v>
       </c>
       <c r="G174">
-        <v>566.840171463564</v>
+        <v>566.8401714635639</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -14096,7 +14096,7 @@
         <v>7.828132173913037</v>
       </c>
       <c r="G180">
-        <v>5.877798953692756</v>
+        <v>5.877798953692754</v>
       </c>
       <c r="H180">
         <v>2.029127082832904</v>
@@ -14119,7 +14119,7 @@
         <v>682</v>
       </c>
       <c r="F181">
-        <v>3378.140115050163</v>
+        <v>3378.140115050162</v>
       </c>
       <c r="G181">
         <v>2536.49631770895</v>
@@ -14177,10 +14177,10 @@
         <v>2544.18854798581</v>
       </c>
       <c r="H183">
-        <v>878.3018825963713</v>
+        <v>878.3018825963711</v>
       </c>
       <c r="I183">
-        <v>899.1015376556121</v>
+        <v>899.1015376556122</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -14197,7 +14197,7 @@
         <v>682</v>
       </c>
       <c r="F184">
-        <v>3378.140115050163</v>
+        <v>3378.140115050162</v>
       </c>
       <c r="G184">
         <v>2536.49631770895</v>
@@ -14296,7 +14296,7 @@
         <v>0.7853424657534248</v>
       </c>
       <c r="F190">
-        <v>0.5462671232876711</v>
+        <v>0.546267123287671</v>
       </c>
       <c r="G190">
         <v>0.1820890410958904</v>
@@ -14316,13 +14316,13 @@
         <v>682</v>
       </c>
       <c r="E191">
-        <v>338.9054794520549</v>
+        <v>338.905479452055</v>
       </c>
       <c r="F191">
         <v>235.7352739726027</v>
       </c>
       <c r="G191">
-        <v>78.57842465753426</v>
+        <v>78.57842465753424</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -14342,7 +14342,7 @@
         <v>3.262191780821918</v>
       </c>
       <c r="F192">
-        <v>2.269109589041096</v>
+        <v>2.269109589041095</v>
       </c>
       <c r="G192">
         <v>0.7563698630136987</v>
@@ -14385,13 +14385,13 @@
         <v>682</v>
       </c>
       <c r="E194">
-        <v>338.9054794520549</v>
+        <v>338.905479452055</v>
       </c>
       <c r="F194">
         <v>235.7352739726027</v>
       </c>
       <c r="G194">
-        <v>78.57842465753426</v>
+        <v>78.57842465753424</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -14478,7 +14478,7 @@
         <v>682</v>
       </c>
       <c r="E200">
-        <v>0.3881428571428571</v>
+        <v>0.3881428571428572</v>
       </c>
       <c r="F200">
         <v>0.2882285714285714</v>
@@ -14501,7 +14501,7 @@
         <v>682</v>
       </c>
       <c r="E201">
-        <v>167.4985714285715</v>
+        <v>167.4985714285714</v>
       </c>
       <c r="F201">
         <v>124.3817142857143</v>
@@ -14570,7 +14570,7 @@
         <v>682</v>
       </c>
       <c r="E204">
-        <v>167.4985714285715</v>
+        <v>167.4985714285714</v>
       </c>
       <c r="F204">
         <v>124.3817142857143</v>
@@ -14745,7 +14745,7 @@
         <v>699.5419306396767</v>
       </c>
       <c r="I215">
-        <v>50.0685436339219</v>
+        <v>50.06854363392191</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -14791,16 +14791,16 @@
         <v>682</v>
       </c>
       <c r="E217">
-        <v>37.96210526315792</v>
+        <v>37.96210526315791</v>
       </c>
       <c r="F217">
-        <v>84.53696192823196</v>
+        <v>84.53696192823197</v>
       </c>
       <c r="G217">
-        <v>61.57573617578003</v>
+        <v>61.57573617578002</v>
       </c>
       <c r="H217">
-        <v>28.67676753017705</v>
+        <v>28.67676753017704</v>
       </c>
       <c r="I217">
         <v>2.670179917546899</v>
@@ -14820,7 +14820,7 @@
         <v>682</v>
       </c>
       <c r="E218">
-        <v>161.7096359376843</v>
+        <v>161.7096359376842</v>
       </c>
       <c r="F218">
         <v>455.6560000693706</v>
@@ -14855,7 +14855,7 @@
         <v>3.170136072308698</v>
       </c>
       <c r="G219">
-        <v>1.920908649154558</v>
+        <v>1.920908649154557</v>
       </c>
       <c r="H219">
         <v>0.6995132538721466</v>
@@ -14907,13 +14907,13 @@
         <v>682</v>
       </c>
       <c r="E221">
-        <v>4.387500000000001</v>
+        <v>4.3875</v>
       </c>
       <c r="F221">
         <v>1.828125</v>
       </c>
       <c r="G221">
-        <v>0.9546875000000001</v>
+        <v>0.9546875000000004</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -14956,10 +14956,10 @@
         <v>18.225</v>
       </c>
       <c r="F223">
-        <v>7.593750000000001</v>
+        <v>7.593750000000002</v>
       </c>
       <c r="G223">
-        <v>3.965625000000002</v>
+        <v>3.965625000000001</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -15039,7 +15039,7 @@
         <v>682</v>
       </c>
       <c r="E227">
-        <v>480.5795363295364</v>
+        <v>480.5795363295365</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -15073,7 +15073,7 @@
         <v>682</v>
       </c>
       <c r="E229">
-        <v>482.0369515971968</v>
+        <v>482.0369515971969</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -15090,7 +15090,7 @@
         <v>682</v>
       </c>
       <c r="E230">
-        <v>480.5795363295364</v>
+        <v>480.5795363295365</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -15130,7 +15130,7 @@
         <v>184.3285714285714</v>
       </c>
       <c r="F232">
-        <v>76.80357142857144</v>
+        <v>76.80357142857143</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -15150,7 +15150,7 @@
         <v>1.774285714285714</v>
       </c>
       <c r="F233">
-        <v>0.7392857142857143</v>
+        <v>0.7392857142857144</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -15190,7 +15190,7 @@
         <v>184.3285714285714</v>
       </c>
       <c r="F235">
-        <v>76.80357142857144</v>
+        <v>76.80357142857143</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -15207,10 +15207,10 @@
         <v>682</v>
       </c>
       <c r="E236">
-        <v>0.008233333333333332</v>
+        <v>0.008233333333333334</v>
       </c>
       <c r="F236">
-        <v>0.003435714285714286</v>
+        <v>0.003435714285714285</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -15310,7 +15310,7 @@
         <v>7.205381391966977</v>
       </c>
       <c r="H241">
-        <v>14.41572869635566</v>
+        <v>14.41572869635567</v>
       </c>
       <c r="I241">
         <v>15.72963487554281</v>
@@ -15330,10 +15330,10 @@
         <v>682</v>
       </c>
       <c r="G242">
-        <v>3109.399200687287</v>
+        <v>3109.399200687288</v>
       </c>
       <c r="H242">
-        <v>6220.941383581175</v>
+        <v>6220.941383581174</v>
       </c>
       <c r="I242">
         <v>6787.942434753471</v>
@@ -15379,10 +15379,10 @@
         <v>3118.828827888944</v>
       </c>
       <c r="H244">
-        <v>6239.807136835874</v>
+        <v>6239.807136835876</v>
       </c>
       <c r="I244">
-        <v>6808.527686917903</v>
+        <v>6808.527686917902</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -15399,10 +15399,10 @@
         <v>682</v>
       </c>
       <c r="G245">
-        <v>3109.399200687287</v>
+        <v>3109.399200687288</v>
       </c>
       <c r="H245">
-        <v>6220.941383581175</v>
+        <v>6220.941383581174</v>
       </c>
       <c r="I245">
         <v>6787.942434753471</v>
@@ -15908,13 +15908,13 @@
         <v>684</v>
       </c>
       <c r="G279">
-        <v>13.18295809130921</v>
+        <v>13.18295809130922</v>
       </c>
       <c r="H279">
-        <v>13.18295809130921</v>
+        <v>13.18295809130922</v>
       </c>
       <c r="I279">
-        <v>6.591479045654606</v>
+        <v>6.591479045654607</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -15931,13 +15931,13 @@
         <v>684</v>
       </c>
       <c r="G280">
+        <v>0.1268947837666128</v>
+      </c>
+      <c r="H280">
         <v>0.1268947837666127</v>
       </c>
-      <c r="H280">
-        <v>0.1268947837666128</v>
-      </c>
       <c r="I280">
-        <v>0.06344739188330638</v>
+        <v>0.06344739188330639</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -15954,7 +15954,7 @@
         <v>684</v>
       </c>
       <c r="G281">
-        <v>13.2229369979059</v>
+        <v>13.22293699790591</v>
       </c>
       <c r="H281">
         <v>13.2229369979059</v>
@@ -15977,13 +15977,13 @@
         <v>684</v>
       </c>
       <c r="G282">
-        <v>13.18295809130921</v>
+        <v>13.18295809130922</v>
       </c>
       <c r="H282">
-        <v>13.18295809130921</v>
+        <v>13.18295809130922</v>
       </c>
       <c r="I282">
-        <v>6.591479045654606</v>
+        <v>6.591479045654607</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -16704,7 +16704,7 @@
         <v>684</v>
       </c>
       <c r="E323">
-        <v>23.72612938398331</v>
+        <v>23.7261293839833</v>
       </c>
       <c r="F323">
         <v>68.80238014474904</v>
@@ -16713,10 +16713,10 @@
         <v>27.94571540247627</v>
       </c>
       <c r="H323">
-        <v>30.47746701357205</v>
+        <v>30.47746701357203</v>
       </c>
       <c r="I323">
-        <v>32.45464446223724</v>
+        <v>32.45464446223725</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -16733,19 +16733,19 @@
         <v>684</v>
       </c>
       <c r="E324">
-        <v>0.6045145219029027</v>
+        <v>0.6045145219029026</v>
       </c>
       <c r="F324">
-        <v>1.500612187161109</v>
+        <v>1.50061218716111</v>
       </c>
       <c r="G324">
-        <v>0.7120247265096171</v>
+        <v>0.7120247265096172</v>
       </c>
       <c r="H324">
-        <v>0.7765308492736465</v>
+        <v>0.7765308492736466</v>
       </c>
       <c r="I324">
-        <v>0.8269070594322195</v>
+        <v>0.8269070594322198</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -16765,13 +16765,13 @@
         <v>23.47677748836746</v>
       </c>
       <c r="F325">
-        <v>68.27352158872066</v>
+        <v>68.2735215887207</v>
       </c>
       <c r="G325">
         <v>27.6520173872133</v>
       </c>
       <c r="H325">
-        <v>30.15716132652079</v>
+        <v>30.15716132652081</v>
       </c>
       <c r="I325">
         <v>32.11355945055135</v>
@@ -16791,16 +16791,16 @@
         <v>684</v>
       </c>
       <c r="E326">
-        <v>0.7634099698576824</v>
+        <v>0.7634099698576822</v>
       </c>
       <c r="F326">
         <v>1.604340968057869</v>
       </c>
       <c r="G326">
-        <v>0.8991790193750538</v>
+        <v>0.8991790193750537</v>
       </c>
       <c r="H326">
-        <v>0.9806404490854779</v>
+        <v>0.9806404490854778</v>
       </c>
       <c r="I326">
         <v>1.044257946573615</v>
@@ -16826,7 +16826,7 @@
         <v>0.1447795299804964</v>
       </c>
       <c r="G327">
-        <v>0.1518547287306744</v>
+        <v>0.1518547287306743</v>
       </c>
       <c r="H327">
         <v>0.1656120596337983</v>
@@ -16849,19 +16849,19 @@
         <v>684</v>
       </c>
       <c r="E328">
-        <v>0.0006045145219029025</v>
+        <v>0.0006045145219029023</v>
       </c>
       <c r="F328">
-        <v>0.00150061218716111</v>
+        <v>0.001500612187161111</v>
       </c>
       <c r="G328">
-        <v>0.0007120247265096171</v>
+        <v>0.0007120247265096176</v>
       </c>
       <c r="H328">
-        <v>0.0007765308492736462</v>
+        <v>0.0007765308492736466</v>
       </c>
       <c r="I328">
-        <v>0.0008269070594322198</v>
+        <v>0.0008269070594322199</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -16881,13 +16881,13 @@
         <v>23.47677748836746</v>
       </c>
       <c r="F329">
-        <v>68.27352158872066</v>
+        <v>68.2735215887207</v>
       </c>
       <c r="G329">
         <v>27.6520173872133</v>
       </c>
       <c r="H329">
-        <v>30.15716132652079</v>
+        <v>30.15716132652081</v>
       </c>
       <c r="I329">
         <v>32.11355945055135</v>
@@ -16907,13 +16907,13 @@
         <v>684</v>
       </c>
       <c r="E330">
-        <v>0.0007620794657927482</v>
+        <v>0.000762079465792748</v>
       </c>
       <c r="F330">
         <v>0.001602846855261373</v>
       </c>
       <c r="G330">
-        <v>0.0008976118911115794</v>
+        <v>0.0008976118911115791</v>
       </c>
       <c r="H330">
         <v>0.0009789313463028789</v>
@@ -19358,7 +19358,7 @@
         <v>684</v>
       </c>
       <c r="F459">
-        <v>0.4260377627400194</v>
+        <v>0.4260377627400196</v>
       </c>
       <c r="G459">
         <v>0.4260377627400194</v>
@@ -19410,7 +19410,7 @@
         <v>684</v>
       </c>
       <c r="F461">
-        <v>0.3873070570363814</v>
+        <v>0.3873070570363815</v>
       </c>
       <c r="G461">
         <v>0.3873070570363814</v>
@@ -19462,7 +19462,7 @@
         <v>684</v>
       </c>
       <c r="F463">
-        <v>0.0004729019166414216</v>
+        <v>0.0004729019166414217</v>
       </c>
       <c r="G463">
         <v>0.0004729019166414215</v>
@@ -19514,7 +19514,7 @@
         <v>684</v>
       </c>
       <c r="F465">
-        <v>0.0004299108333103835</v>
+        <v>0.0004299108333103832</v>
       </c>
       <c r="G465">
         <v>0.0004299108333103834</v>
@@ -19540,19 +19540,19 @@
         <v>684</v>
       </c>
       <c r="E466">
-        <v>69.62953998179691</v>
+        <v>69.6295399817968</v>
       </c>
       <c r="F466">
-        <v>21.90679414567172</v>
+        <v>21.90679414567173</v>
       </c>
       <c r="G466">
-        <v>38.69919219921835</v>
+        <v>38.69919219921836</v>
       </c>
       <c r="H466">
-        <v>56.93864381469474</v>
+        <v>56.93864381469472</v>
       </c>
       <c r="I466">
-        <v>56.91105483719207</v>
+        <v>56.91105483719205</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -19572,16 +19572,16 @@
         <v>1.967018053392976</v>
       </c>
       <c r="F467">
-        <v>0.6188617587846346</v>
+        <v>0.6188617587846345</v>
       </c>
       <c r="G467">
-        <v>1.093243036324633</v>
+        <v>1.093243036324634</v>
       </c>
       <c r="H467">
         <v>1.608503235099596</v>
       </c>
       <c r="I467">
-        <v>1.607723853003481</v>
+        <v>1.607723853003483</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -19598,19 +19598,19 @@
         <v>684</v>
       </c>
       <c r="E468">
-        <v>68.94683128003261</v>
+        <v>68.94683128003268</v>
       </c>
       <c r="F468">
         <v>21.69200084106397</v>
       </c>
       <c r="G468">
-        <v>38.3197515871942</v>
+        <v>38.31975158719419</v>
       </c>
       <c r="H468">
         <v>56.38036772082555</v>
       </c>
       <c r="I468">
-        <v>56.35304924970593</v>
+        <v>56.35304924970589</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -19627,13 +19627,13 @@
         <v>684</v>
       </c>
       <c r="E469">
-        <v>2.069036524654821</v>
+        <v>2.069036524654822</v>
       </c>
       <c r="F469">
-        <v>0.6509587344299378</v>
+        <v>0.650958734429938</v>
       </c>
       <c r="G469">
-        <v>1.149943575036577</v>
+        <v>1.149943575036576</v>
       </c>
       <c r="H469">
         <v>1.691927503006815</v>
@@ -19659,7 +19659,7 @@
         <v>0.2645563746281753</v>
       </c>
       <c r="F470">
-        <v>0.08323453006324291</v>
+        <v>0.08323453006324286</v>
       </c>
       <c r="G470">
         <v>0.1470369902191039</v>
@@ -19668,7 +19668,7 @@
         <v>0.2163375083017731</v>
       </c>
       <c r="I470">
-        <v>0.216232684402754</v>
+        <v>0.2162326844027537</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -19685,10 +19685,10 @@
         <v>684</v>
       </c>
       <c r="E471">
-        <v>0.001967018053392976</v>
+        <v>0.001967018053392977</v>
       </c>
       <c r="F471">
-        <v>0.0006188617587846347</v>
+        <v>0.0006188617587846346</v>
       </c>
       <c r="G471">
         <v>0.001093243036324634</v>
@@ -19714,19 +19714,19 @@
         <v>684</v>
       </c>
       <c r="E472">
-        <v>68.94683128003261</v>
+        <v>68.94683128003268</v>
       </c>
       <c r="F472">
         <v>21.69200084106397</v>
       </c>
       <c r="G472">
-        <v>38.3197515871942</v>
+        <v>38.31975158719419</v>
       </c>
       <c r="H472">
         <v>56.38036772082555</v>
       </c>
       <c r="I472">
-        <v>56.35304924970593</v>
+        <v>56.35304924970589</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -19743,13 +19743,13 @@
         <v>684</v>
       </c>
       <c r="E473">
-        <v>0.002064486191413883</v>
+        <v>0.002064486191413882</v>
       </c>
       <c r="F473">
         <v>0.0006495271119658295</v>
       </c>
       <c r="G473">
-        <v>0.001147414559036936</v>
+        <v>0.001147414559036935</v>
       </c>
       <c r="H473">
         <v>0.001688206527631828</v>
@@ -21335,7 +21335,7 @@
         <v>2.708829245511735</v>
       </c>
       <c r="G549">
-        <v>2.708829245511735</v>
+        <v>2.708829245511736</v>
       </c>
       <c r="H549">
         <v>1.660713389305934</v>
@@ -21364,7 +21364,7 @@
         <v>0.01475903219540273</v>
       </c>
       <c r="G550">
-        <v>0.01475903219540271</v>
+        <v>0.01475903219540272</v>
       </c>
       <c r="H550">
         <v>0.009048382219261034</v>
@@ -21422,7 +21422,7 @@
         <v>0.04947008939570172</v>
       </c>
       <c r="G552">
-        <v>0.04947008939570173</v>
+        <v>0.04947008939570171</v>
       </c>
       <c r="H552">
         <v>0.03032883669789346</v>
@@ -21503,10 +21503,10 @@
         <v>684</v>
       </c>
       <c r="E555">
-        <v>330.7221137995776</v>
+        <v>330.7221137995777</v>
       </c>
       <c r="F555">
-        <v>177.7772967242442</v>
+        <v>177.7772967242441</v>
       </c>
       <c r="G555">
         <v>180.2625085082064</v>
@@ -21532,19 +21532,19 @@
         <v>684</v>
       </c>
       <c r="E556">
-        <v>6.085143076953647</v>
+        <v>6.085143076953645</v>
       </c>
       <c r="F556">
         <v>3.037945015772415</v>
       </c>
       <c r="G556">
-        <v>3.08041352492034</v>
+        <v>3.080413524920341</v>
       </c>
       <c r="H556">
-        <v>3.126632576955235</v>
+        <v>3.126632576955233</v>
       </c>
       <c r="I556">
-        <v>3.194619550092395</v>
+        <v>3.194619550092393</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -21561,16 +21561,16 @@
         <v>684</v>
       </c>
       <c r="E557">
-        <v>328.6688964125025</v>
+        <v>328.6688964125024</v>
       </c>
       <c r="F557">
         <v>176.731108513742</v>
       </c>
       <c r="G557">
-        <v>179.201695262242</v>
+        <v>179.2016952622419</v>
       </c>
       <c r="H557">
-        <v>181.8904681854425</v>
+        <v>181.8904681854424</v>
       </c>
       <c r="I557">
         <v>185.8455802972955</v>
@@ -21590,7 +21590,7 @@
         <v>684</v>
       </c>
       <c r="E558">
-        <v>6.211062524061596</v>
+        <v>6.211062524061597</v>
       </c>
       <c r="F558">
         <v>3.169004403777089</v>
@@ -21599,10 +21599,10 @@
         <v>3.213305038519619</v>
       </c>
       <c r="H558">
-        <v>3.261518017581631</v>
+        <v>3.261518017581632</v>
       </c>
       <c r="I558">
-        <v>3.332438003345877</v>
+        <v>3.332438003345875</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -21628,7 +21628,7 @@
         <v>0.4833134986185446</v>
       </c>
       <c r="H559">
-        <v>0.4905652171170842</v>
+        <v>0.4905652171170843</v>
       </c>
       <c r="I559">
         <v>0.5012322985272846</v>
@@ -21648,19 +21648,19 @@
         <v>684</v>
       </c>
       <c r="E560">
-        <v>0.005738640114656979</v>
+        <v>0.005738640114656977</v>
       </c>
       <c r="F560">
         <v>0.002820096477286416</v>
       </c>
       <c r="G560">
-        <v>0.002859519604572088</v>
+        <v>0.002859519604572087</v>
       </c>
       <c r="H560">
-        <v>0.002902424326398983</v>
+        <v>0.002902424326398984</v>
       </c>
       <c r="I560">
-        <v>0.002965536009609198</v>
+        <v>0.002965536009609197</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -21677,16 +21677,16 @@
         <v>684</v>
       </c>
       <c r="E561">
-        <v>328.6688964125025</v>
+        <v>328.6688964125024</v>
       </c>
       <c r="F561">
         <v>176.731108513742</v>
       </c>
       <c r="G561">
-        <v>179.201695262242</v>
+        <v>179.2016952622419</v>
       </c>
       <c r="H561">
-        <v>181.8904681854425</v>
+        <v>181.8904681854424</v>
       </c>
       <c r="I561">
         <v>185.8455802972955</v>
@@ -21718,7 +21718,7 @@
         <v>0.003258354774947471</v>
       </c>
       <c r="I562">
-        <v>0.003329205977672231</v>
+        <v>0.00332920597767223</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -22239,7 +22239,7 @@
         <v>684</v>
       </c>
       <c r="E599">
-        <v>53.34205238198344</v>
+        <v>53.34205238198343</v>
       </c>
       <c r="F599">
         <v>129.1672191756603</v>
@@ -22251,7 +22251,7 @@
         <v>132.4686177488401</v>
       </c>
       <c r="I599">
-        <v>135.0822249526074</v>
+        <v>135.0822249526075</v>
       </c>
     </row>
     <row r="600" spans="1:9">
@@ -22297,7 +22297,7 @@
         <v>684</v>
       </c>
       <c r="E601">
-        <v>52.99885104342085</v>
+        <v>52.99885104342088</v>
       </c>
       <c r="F601">
         <v>128.3807151877805</v>
@@ -22306,7 +22306,7 @@
         <v>130.1580839816475</v>
       </c>
       <c r="H601">
-        <v>131.6620114226119</v>
+        <v>131.662011422612</v>
       </c>
       <c r="I601">
         <v>134.2597042751868</v>
@@ -22335,10 +22335,10 @@
         <v>2.478499079815198</v>
       </c>
       <c r="H602">
-        <v>2.507137199434911</v>
+        <v>2.507137199434912</v>
       </c>
       <c r="I602">
-        <v>2.556603042414416</v>
+        <v>2.556603042414417</v>
       </c>
     </row>
     <row r="603" spans="1:9">
@@ -22355,7 +22355,7 @@
         <v>684</v>
       </c>
       <c r="E603">
-        <v>0.270232948128633</v>
+        <v>0.2702329481286329</v>
       </c>
       <c r="F603">
         <v>1.075793556808114</v>
@@ -22413,7 +22413,7 @@
         <v>684</v>
       </c>
       <c r="E605">
-        <v>52.99885104342085</v>
+        <v>52.99885104342088</v>
       </c>
       <c r="F605">
         <v>128.3807151877805</v>
@@ -22422,7 +22422,7 @@
         <v>130.1580839816475</v>
       </c>
       <c r="H605">
-        <v>131.6620114226119</v>
+        <v>131.662011422612</v>
       </c>
       <c r="I605">
         <v>134.2597042751868</v>
@@ -23024,10 +23024,10 @@
         <v>7.556335660947494</v>
       </c>
       <c r="H633">
-        <v>7.747701770277772</v>
+        <v>7.747701770277771</v>
       </c>
       <c r="I633">
-        <v>7.863945307322789</v>
+        <v>7.86394530732279</v>
       </c>
     </row>
     <row r="634" spans="1:9">
@@ -23044,7 +23044,7 @@
         <v>684</v>
       </c>
       <c r="E634">
-        <v>85.345719101668</v>
+        <v>85.34571910166797</v>
       </c>
       <c r="F634">
         <v>97.87080933079126</v>
@@ -23056,7 +23056,7 @@
         <v>120.1700826660792</v>
       </c>
       <c r="I634">
-        <v>121.9730683604545</v>
+        <v>121.9730683604546</v>
       </c>
     </row>
     <row r="635" spans="1:9">
@@ -23102,7 +23102,7 @@
         <v>684</v>
       </c>
       <c r="E636">
-        <v>85.345719101668</v>
+        <v>85.34571910166797</v>
       </c>
       <c r="F636">
         <v>97.87080933079126</v>
@@ -23114,7 +23114,7 @@
         <v>120.1700826660792</v>
       </c>
       <c r="I636">
-        <v>121.9730683604545</v>
+        <v>121.9730683604546</v>
       </c>
     </row>
     <row r="637" spans="1:9">
@@ -23243,13 +23243,13 @@
         <v>684</v>
       </c>
       <c r="E645">
-        <v>123.4182162988625</v>
+        <v>123.4182162988626</v>
       </c>
       <c r="F645">
-        <v>99.85870177327486</v>
+        <v>99.85870177327487</v>
       </c>
       <c r="G645">
-        <v>49.92935088663744</v>
+        <v>49.92935088663745</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -23266,13 +23266,13 @@
         <v>684</v>
       </c>
       <c r="E646">
-        <v>2.345015176239486</v>
+        <v>2.345015176239487</v>
       </c>
       <c r="F646">
         <v>1.897371216019272</v>
       </c>
       <c r="G646">
-        <v>0.9486856080096361</v>
+        <v>0.9486856080096362</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -23292,10 +23292,10 @@
         <v>122.6508944585381</v>
       </c>
       <c r="F647">
-        <v>99.23785531223439</v>
+        <v>99.23785531223442</v>
       </c>
       <c r="G647">
-        <v>49.61892765611719</v>
+        <v>49.61892765611723</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -23312,7 +23312,7 @@
         <v>684</v>
       </c>
       <c r="E648">
-        <v>2.316375876204432</v>
+        <v>2.316375876204433</v>
       </c>
       <c r="F648">
         <v>1.874198920980829</v>
@@ -23361,10 +23361,10 @@
         <v>122.6508944585381</v>
       </c>
       <c r="F650">
-        <v>99.23785531223439</v>
+        <v>99.23785531223442</v>
       </c>
       <c r="G650">
-        <v>49.61892765611719</v>
+        <v>49.61892765611723</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -23628,10 +23628,10 @@
         <v>684</v>
       </c>
       <c r="F668">
-        <v>26.72753062915543</v>
+        <v>26.72753062915542</v>
       </c>
       <c r="G668">
-        <v>68.36524983607924</v>
+        <v>68.36524983607926</v>
       </c>
       <c r="H668">
         <v>111.155500087012</v>
@@ -23654,7 +23654,7 @@
         <v>684</v>
       </c>
       <c r="F669">
-        <v>0.5082559560297676</v>
+        <v>0.5082559560297677</v>
       </c>
       <c r="G669">
         <v>1.300046977656326</v>
@@ -23680,16 +23680,16 @@
         <v>684</v>
       </c>
       <c r="F670">
-        <v>26.56162645117081</v>
+        <v>26.5616264511708</v>
       </c>
       <c r="G670">
-        <v>67.94089037189458</v>
+        <v>67.94089037189457</v>
       </c>
       <c r="H670">
         <v>110.4655313006592</v>
       </c>
       <c r="I670">
-        <v>114.4647726491174</v>
+        <v>114.4647726491175</v>
       </c>
     </row>
     <row r="671" spans="1:9">
@@ -23758,16 +23758,16 @@
         <v>684</v>
       </c>
       <c r="F673">
-        <v>26.56162645117081</v>
+        <v>26.5616264511708</v>
       </c>
       <c r="G673">
-        <v>67.94089037189458</v>
+        <v>67.94089037189457</v>
       </c>
       <c r="H673">
         <v>110.4655313006592</v>
       </c>
       <c r="I673">
-        <v>114.4647726491174</v>
+        <v>114.4647726491175</v>
       </c>
     </row>
     <row r="674" spans="1:9">
@@ -23945,7 +23945,7 @@
         <v>0.7984007089290219</v>
       </c>
       <c r="F684">
-        <v>0.6458689202033108</v>
+        <v>0.6458689202033114</v>
       </c>
     </row>
     <row r="685" spans="1:9">
@@ -23985,7 +23985,7 @@
         <v>1.01296212337682</v>
       </c>
       <c r="F686">
-        <v>0.819439093071249</v>
+        <v>0.8194390930712494</v>
       </c>
     </row>
     <row r="687" spans="1:9">
@@ -24022,10 +24022,10 @@
         <v>684</v>
       </c>
       <c r="E688">
-        <v>0.000798400708929022</v>
+        <v>0.0007984007089290217</v>
       </c>
       <c r="F688">
-        <v>0.0006458689202033108</v>
+        <v>0.0006458689202033106</v>
       </c>
     </row>
     <row r="689" spans="1:9">
@@ -24065,7 +24065,7 @@
         <v>0.00101296212337682</v>
       </c>
       <c r="F690">
-        <v>0.0008194390930712492</v>
+        <v>0.0008194390930712483</v>
       </c>
     </row>
     <row r="691" spans="1:9">
@@ -24082,13 +24082,13 @@
         <v>684</v>
       </c>
       <c r="F691">
-        <v>8.054052570369686</v>
+        <v>8.05405257036969</v>
       </c>
       <c r="G691">
         <v>32.91341781948271</v>
       </c>
       <c r="H691">
-        <v>33.96217348772964</v>
+        <v>33.96217348772963</v>
       </c>
       <c r="I691">
         <v>34.70725789604716</v>
@@ -24111,13 +24111,13 @@
         <v>0.2090472987777444</v>
       </c>
       <c r="G692">
-        <v>0.8542855945612875</v>
+        <v>0.8542855945612879</v>
       </c>
       <c r="H692">
-        <v>0.8815066162282482</v>
+        <v>0.8815066162282487</v>
       </c>
       <c r="I692">
-        <v>0.9008456857909689</v>
+        <v>0.9008456857909688</v>
       </c>
     </row>
     <row r="693" spans="1:9">
@@ -24134,13 +24134,13 @@
         <v>684</v>
       </c>
       <c r="F693">
-        <v>7.966612730786485</v>
+        <v>7.966612730786486</v>
       </c>
       <c r="G693">
         <v>32.55608913940203</v>
       </c>
       <c r="H693">
-        <v>33.59345885919726</v>
+        <v>33.59345885919727</v>
       </c>
       <c r="I693">
         <v>34.33045416447379</v>
@@ -24160,7 +24160,7 @@
         <v>684</v>
       </c>
       <c r="F694">
-        <v>0.2679027300286113</v>
+        <v>0.2679027300286115</v>
       </c>
       <c r="G694">
         <v>1.094802201918955</v>
@@ -24186,7 +24186,7 @@
         <v>684</v>
       </c>
       <c r="F695">
-        <v>0.03248100502514419</v>
+        <v>0.03248100502514418</v>
       </c>
       <c r="G695">
         <v>0.1327357724882863</v>
@@ -24218,10 +24218,10 @@
         <v>0.0008377510346665527</v>
       </c>
       <c r="H696">
-        <v>0.0008644451978496376</v>
+        <v>0.0008644451978496368</v>
       </c>
       <c r="I696">
-        <v>0.0008834099628401762</v>
+        <v>0.0008834099628401769</v>
       </c>
     </row>
     <row r="697" spans="1:9">
@@ -24238,13 +24238,13 @@
         <v>684</v>
       </c>
       <c r="F697">
-        <v>7.966612730786485</v>
+        <v>7.966612730786486</v>
       </c>
       <c r="G697">
         <v>32.55608913940203</v>
       </c>
       <c r="H697">
-        <v>33.59345885919726</v>
+        <v>33.59345885919727</v>
       </c>
       <c r="I697">
         <v>34.33045416447379</v>
@@ -24264,7 +24264,7 @@
         <v>684</v>
       </c>
       <c r="F698">
-        <v>0.0002679027300286112</v>
+        <v>0.0002679027300286113</v>
       </c>
       <c r="G698">
         <v>0.001094802201918955</v>
@@ -24950,7 +24950,7 @@
         <v>9.911079785266944</v>
       </c>
       <c r="G729">
-        <v>4.955539892633471</v>
+        <v>4.955539892633473</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -24996,7 +24996,7 @@
         <v>9.839868966537235</v>
       </c>
       <c r="G731">
-        <v>4.919934483268617</v>
+        <v>4.919934483268618</v>
       </c>
     </row>
     <row r="732" spans="1:9">
@@ -25019,7 +25019,7 @@
         <v>0.2179703106981893</v>
       </c>
       <c r="G732">
-        <v>0.1089851553490947</v>
+        <v>0.1089851553490946</v>
       </c>
     </row>
     <row r="733" spans="1:9">
@@ -25065,7 +25065,7 @@
         <v>0.000173334400631791</v>
       </c>
       <c r="G734">
-        <v>8.666720031589549E-05</v>
+        <v>8.666720031589551E-05</v>
       </c>
     </row>
     <row r="735" spans="1:9">
@@ -25088,7 +25088,7 @@
         <v>9.839868966537235</v>
       </c>
       <c r="G735">
-        <v>4.919934483268617</v>
+        <v>4.919934483268618</v>
       </c>
     </row>
     <row r="736" spans="1:9">
@@ -25111,7 +25111,7 @@
         <v>0.0002179703106981893</v>
       </c>
       <c r="G736">
-        <v>0.0001089851553490947</v>
+        <v>0.0001089851553490946</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -25568,7 +25568,7 @@
         <v>215.6789849759039</v>
       </c>
       <c r="G768">
-        <v>72.26024529485026</v>
+        <v>72.26024529485025</v>
       </c>
     </row>
     <row r="769" spans="1:7">
@@ -25591,7 +25591,7 @@
         <v>224.0888546440358</v>
       </c>
       <c r="G769">
-        <v>89.30817210627367</v>
+        <v>89.30817210627362</v>
       </c>
     </row>
     <row r="770" spans="1:7">
@@ -25608,10 +25608,10 @@
         <v>684</v>
       </c>
       <c r="E770">
-        <v>3.602413434133825</v>
+        <v>3.602413434133824</v>
       </c>
       <c r="F770">
-        <v>2.349464374559842</v>
+        <v>2.349464374559838</v>
       </c>
       <c r="G770">
         <v>0.7831596621490222</v>
@@ -25631,13 +25631,13 @@
         <v>684</v>
       </c>
       <c r="E771">
-        <v>318.4465979400002</v>
+        <v>318.4465979400001</v>
       </c>
       <c r="F771">
-        <v>207.682563873913</v>
+        <v>207.6825638739129</v>
       </c>
       <c r="G771">
-        <v>69.22752129130437</v>
+        <v>69.2275212913043</v>
       </c>
     </row>
     <row r="772" spans="1:7">
@@ -25654,7 +25654,7 @@
         <v>684</v>
       </c>
       <c r="E772">
-        <v>0.7105833037534189</v>
+        <v>0.710583303753419</v>
       </c>
       <c r="F772">
         <v>3.035776709375636</v>
@@ -25680,10 +25680,10 @@
         <v>0.03880249758817481</v>
       </c>
       <c r="F773">
-        <v>0.02530597668794008</v>
+        <v>0.02530597668794009</v>
       </c>
       <c r="G773">
-        <v>0.008435325562646692</v>
+        <v>0.008435325562646694</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -25706,7 +25706,7 @@
         <v>0.2240732534240076</v>
       </c>
       <c r="G774">
-        <v>0.08930297169959764</v>
+        <v>0.08930297169959762</v>
       </c>
     </row>
     <row r="775" spans="1:7">
@@ -25723,10 +25723,10 @@
         <v>684</v>
       </c>
       <c r="E775">
-        <v>322.0490113741333</v>
+        <v>322.0490113741334</v>
       </c>
       <c r="F775">
-        <v>210.0320282484728</v>
+        <v>210.0320282484727</v>
       </c>
       <c r="G775">
         <v>70.01068095345333</v>
@@ -25898,7 +25898,7 @@
         <v>329.4122049694318</v>
       </c>
       <c r="F786">
-        <v>446.3163910662109</v>
+        <v>446.3163910662111</v>
       </c>
       <c r="G786">
         <v>228.1259567761866</v>
@@ -25918,10 +25918,10 @@
         <v>684</v>
       </c>
       <c r="E787">
-        <v>6.232693950789793</v>
+        <v>6.232693950789796</v>
       </c>
       <c r="F787">
-        <v>8.444597464125051</v>
+        <v>8.444597464125049</v>
       </c>
       <c r="G787">
         <v>4.316292017622763</v>
@@ -25941,13 +25941,13 @@
         <v>684</v>
       </c>
       <c r="E788">
-        <v>147.7402329978918</v>
+        <v>147.7402329978919</v>
       </c>
       <c r="F788">
-        <v>200.1713555604872</v>
+        <v>200.1713555604871</v>
       </c>
       <c r="G788">
-        <v>102.3137014917476</v>
+        <v>102.3137014917475</v>
       </c>
     </row>
     <row r="789" spans="1:7">
@@ -25964,10 +25964,10 @@
         <v>684</v>
       </c>
       <c r="E789">
-        <v>180.7966044329505</v>
+        <v>180.7966044329506</v>
       </c>
       <c r="F789">
-        <v>244.9590112030845</v>
+        <v>244.9590112030846</v>
       </c>
       <c r="G789">
         <v>125.2060419922204</v>
@@ -25987,10 +25987,10 @@
         <v>684</v>
       </c>
       <c r="E790">
-        <v>2.401551502009411</v>
+        <v>2.40155150200941</v>
       </c>
       <c r="F790">
-        <v>3.253831470621869</v>
+        <v>3.25383147062187</v>
       </c>
       <c r="G790">
         <v>1.663132773705286</v>
@@ -26010,13 +26010,13 @@
         <v>684</v>
       </c>
       <c r="E791">
-        <v>0.964953417032006</v>
+        <v>0.9649534170320054</v>
       </c>
       <c r="F791">
         <v>1.307403065641415</v>
       </c>
       <c r="G791">
-        <v>0.6682536900091611</v>
+        <v>0.6682536900091607</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -26033,10 +26033,10 @@
         <v>684</v>
       </c>
       <c r="E792">
-        <v>0.00604113440971333</v>
+        <v>0.006041134409713329</v>
       </c>
       <c r="F792">
-        <v>0.008185055887468894</v>
+        <v>0.00818505588746889</v>
       </c>
       <c r="G792">
         <v>0.004183632380461683</v>
@@ -26056,13 +26056,13 @@
         <v>684</v>
       </c>
       <c r="E793">
-        <v>328.5368374308425</v>
+        <v>328.5368374308424</v>
       </c>
       <c r="F793">
-        <v>445.1303667635718</v>
+        <v>445.1303667635717</v>
       </c>
       <c r="G793">
-        <v>227.5197434839679</v>
+        <v>227.519743483968</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -26085,7 +26085,7 @@
         <v>0.0005386748182950223</v>
       </c>
       <c r="G794">
-        <v>0.0002753331734495056</v>
+        <v>0.0002753331734495057</v>
       </c>
     </row>
     <row r="795" spans="1:7">
@@ -26228,10 +26228,10 @@
         <v>684</v>
       </c>
       <c r="E804">
-        <v>223.3704042148254</v>
+        <v>223.3704042148253</v>
       </c>
       <c r="F804">
-        <v>124.0946690082364</v>
+        <v>124.0946690082363</v>
       </c>
     </row>
     <row r="805" spans="1:9">
@@ -26248,10 +26248,10 @@
         <v>684</v>
       </c>
       <c r="E805">
-        <v>4.17979062624204</v>
+        <v>4.179790626242039</v>
       </c>
       <c r="F805">
-        <v>2.322105903467799</v>
+        <v>2.322105903467798</v>
       </c>
     </row>
     <row r="806" spans="1:9">
@@ -26288,10 +26288,10 @@
         <v>684</v>
       </c>
       <c r="E807">
-        <v>4.150620070861995</v>
+        <v>4.150620070861994</v>
       </c>
       <c r="F807">
-        <v>2.305900039367778</v>
+        <v>2.305900039367777</v>
       </c>
     </row>
     <row r="808" spans="1:9">
@@ -26328,7 +26328,7 @@
         <v>684</v>
       </c>
       <c r="E809">
-        <v>0.004179790626242037</v>
+        <v>0.004179790626242036</v>
       </c>
       <c r="F809">
         <v>0.0023221059034678</v>
@@ -26368,7 +26368,7 @@
         <v>684</v>
       </c>
       <c r="E811">
-        <v>0.004150620070861998</v>
+        <v>0.004150620070861996</v>
       </c>
       <c r="F811">
         <v>0.002305900039367776</v>
@@ -26547,7 +26547,7 @@
         <v>131.0501653616969</v>
       </c>
       <c r="F818">
-        <v>72.80564742316494</v>
+        <v>72.80564742316498</v>
       </c>
     </row>
     <row r="819" spans="1:9">
@@ -26564,10 +26564,10 @@
         <v>684</v>
       </c>
       <c r="E819">
-        <v>2.445908742645242</v>
+        <v>2.445908742645241</v>
       </c>
       <c r="F819">
-        <v>1.358838190358467</v>
+        <v>1.358838190358468</v>
       </c>
     </row>
     <row r="820" spans="1:9">
@@ -26584,10 +26584,10 @@
         <v>684</v>
       </c>
       <c r="E820">
-        <v>130.2071498996292</v>
+        <v>130.2071498996291</v>
       </c>
       <c r="F820">
-        <v>72.33730549979397</v>
+        <v>72.33730549979396</v>
       </c>
     </row>
     <row r="821" spans="1:9">
@@ -26604,7 +26604,7 @@
         <v>684</v>
       </c>
       <c r="E821">
-        <v>2.553714124103833</v>
+        <v>2.553714124103832</v>
       </c>
       <c r="F821">
         <v>1.418730068946573</v>
@@ -26664,10 +26664,10 @@
         <v>684</v>
       </c>
       <c r="E824">
-        <v>130.2071498996292</v>
+        <v>130.2071498996291</v>
       </c>
       <c r="F824">
-        <v>72.33730549979397</v>
+        <v>72.33730549979396</v>
       </c>
     </row>
     <row r="825" spans="1:9">
@@ -26684,7 +26684,7 @@
         <v>684</v>
       </c>
       <c r="E825">
-        <v>0.002553714124103831</v>
+        <v>0.002553714124103832</v>
       </c>
       <c r="F825">
         <v>0.001418730068946574</v>
@@ -26945,7 +26945,7 @@
         <v>684</v>
       </c>
       <c r="E843">
-        <v>3.052145288832</v>
+        <v>3.052145288831999</v>
       </c>
     </row>
     <row r="844" spans="1:5">
@@ -26979,7 +26979,7 @@
         <v>684</v>
       </c>
       <c r="E845">
-        <v>149.8657708499999</v>
+        <v>149.86577085</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -26996,7 +26996,7 @@
         <v>684</v>
       </c>
       <c r="E846">
-        <v>2.437419793697379</v>
+        <v>2.43741979369738</v>
       </c>
     </row>
     <row r="847" spans="1:5">
@@ -27047,7 +27047,7 @@
         <v>684</v>
       </c>
       <c r="E849">
-        <v>291.7270044966517</v>
+        <v>291.7270044966518</v>
       </c>
     </row>
     <row r="850" spans="1:6">
@@ -27064,7 +27064,7 @@
         <v>684</v>
       </c>
       <c r="E850">
-        <v>0.00190499967143669</v>
+        <v>0.001904999671436691</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -27101,7 +27101,7 @@
         <v>684</v>
       </c>
       <c r="E852">
-        <v>63.45081966354492</v>
+        <v>63.45081966354494</v>
       </c>
       <c r="F852">
         <v>13.0082640691495</v>
@@ -27141,10 +27141,10 @@
         <v>684</v>
       </c>
       <c r="E854">
-        <v>3.117750315501605</v>
+        <v>3.117750315501607</v>
       </c>
       <c r="F854">
-        <v>0.6391803860182503</v>
+        <v>0.6391803860182506</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -27204,7 +27204,7 @@
         <v>122.5700695853826</v>
       </c>
       <c r="F857">
-        <v>25.12849858512934</v>
+        <v>25.12849858512933</v>
       </c>
     </row>
     <row r="858" spans="1:6">
@@ -27224,7 +27224,7 @@
         <v>0.003072937882833416</v>
       </c>
       <c r="F858">
-        <v>0.0006299932398029631</v>
+        <v>0.000629993239802963</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -27685,16 +27685,16 @@
         <v>684</v>
       </c>
       <c r="E883">
-        <v>51.97057543927985</v>
+        <v>51.97057543927986</v>
       </c>
       <c r="F883">
-        <v>52.77128262627277</v>
+        <v>52.77128262627275</v>
       </c>
       <c r="G883">
-        <v>60.45699824314559</v>
+        <v>60.45699824314558</v>
       </c>
       <c r="H883">
-        <v>58.88158946267303</v>
+        <v>58.88158946267302</v>
       </c>
       <c r="I883">
         <v>56.64716694311839</v>
@@ -27720,10 +27720,10 @@
         <v>21.11790454257074</v>
       </c>
       <c r="G884">
-        <v>24.19355858509093</v>
+        <v>24.19355858509094</v>
       </c>
       <c r="H884">
-        <v>23.56311470376317</v>
+        <v>23.56311470376316</v>
       </c>
       <c r="I884">
         <v>22.6689480447888</v>
@@ -27743,16 +27743,16 @@
         <v>684</v>
       </c>
       <c r="E885">
-        <v>51.12452977642037</v>
+        <v>51.12452977642034</v>
       </c>
       <c r="F885">
-        <v>51.91220199435533</v>
+        <v>51.91220199435534</v>
       </c>
       <c r="G885">
-        <v>59.47279938214054</v>
+        <v>59.47279938214055</v>
       </c>
       <c r="H885">
-        <v>57.92303718638794</v>
+        <v>57.92303718638798</v>
       </c>
       <c r="I885">
         <v>55.7249895475362</v>
@@ -27772,19 +27772,19 @@
         <v>684</v>
       </c>
       <c r="E886">
-        <v>1.320318065507591</v>
+        <v>1.32031806550759</v>
       </c>
       <c r="F886">
-        <v>1.340660117817626</v>
+        <v>1.340660117817627</v>
       </c>
       <c r="G886">
-        <v>1.535916550703713</v>
+        <v>1.535916550703715</v>
       </c>
       <c r="H886">
-        <v>1.495893120987268</v>
+        <v>1.495893120987267</v>
       </c>
       <c r="I886">
-        <v>1.439127376263277</v>
+        <v>1.439127376263278</v>
       </c>
     </row>
     <row r="887" spans="1:9">
@@ -27801,7 +27801,7 @@
         <v>684</v>
       </c>
       <c r="E887">
-        <v>0.05101048966558694</v>
+        <v>0.05101048966558695</v>
       </c>
       <c r="F887">
         <v>0.05179640487514596</v>
@@ -27810,10 +27810,10 @@
         <v>0.05934013733785821</v>
       </c>
       <c r="H887">
-        <v>0.05779383209424467</v>
+        <v>0.05779383209424466</v>
       </c>
       <c r="I887">
-        <v>0.05560068749503841</v>
+        <v>0.0556006874950384</v>
       </c>
     </row>
     <row r="888" spans="1:9">
@@ -27859,16 +27859,16 @@
         <v>684</v>
       </c>
       <c r="E889">
-        <v>51.124523236614</v>
+        <v>51.12452323661397</v>
       </c>
       <c r="F889">
-        <v>51.91219535379061</v>
+        <v>51.9121953537906</v>
       </c>
       <c r="G889">
         <v>59.47279177443064</v>
       </c>
       <c r="H889">
-        <v>57.92302977692229</v>
+        <v>57.92302977692231</v>
       </c>
       <c r="I889">
         <v>55.72498241924293</v>
@@ -31284,10 +31284,10 @@
         <v>685</v>
       </c>
       <c r="E1058">
-        <v>0.7390069820243403</v>
+        <v>0.7390069820243402</v>
       </c>
       <c r="I1058">
-        <v>0.1478013964048681</v>
+        <v>0.147801396404868</v>
       </c>
     </row>
     <row r="1059" spans="1:9">
@@ -31307,7 +31307,7 @@
         <v>318.9099360889653</v>
       </c>
       <c r="I1059">
-        <v>63.78198721779305</v>
+        <v>63.78198721779306</v>
       </c>
     </row>
     <row r="1060" spans="1:9">
@@ -31367,7 +31367,7 @@
         <v>318.9099360889653</v>
       </c>
       <c r="I1062">
-        <v>63.78198721779305</v>
+        <v>63.78198721779306</v>
       </c>
     </row>
     <row r="1063" spans="1:9">
@@ -32127,7 +32127,7 @@
         <v>685</v>
       </c>
       <c r="E1106">
-        <v>5.83826455363542</v>
+        <v>5.838264553635421</v>
       </c>
       <c r="F1106">
         <v>4.08678518754479</v>
@@ -32150,7 +32150,7 @@
         <v>0.1138000749382714</v>
       </c>
       <c r="F1107">
-        <v>0.07966005245678991</v>
+        <v>0.07966005245678989</v>
       </c>
     </row>
     <row r="1108" spans="1:9">
@@ -32190,7 +32190,7 @@
         <v>0.1034546135802467</v>
       </c>
       <c r="F1109">
-        <v>0.07241822950617262</v>
+        <v>0.07241822950617265</v>
       </c>
     </row>
     <row r="1110" spans="1:9">
@@ -33845,7 +33845,7 @@
         <v>0.6598013718715975</v>
       </c>
       <c r="H1197">
-        <v>0.6598013718715975</v>
+        <v>0.6598013718715974</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -33862,7 +33862,7 @@
         <v>685</v>
       </c>
       <c r="G1198">
-        <v>37.02385425343124</v>
+        <v>37.02385425343123</v>
       </c>
       <c r="H1198">
         <v>37.02385425343123</v>
@@ -33902,7 +33902,7 @@
         <v>685</v>
       </c>
       <c r="G1200">
-        <v>37.02385425343124</v>
+        <v>37.02385425343123</v>
       </c>
       <c r="H1200">
         <v>37.02385425343123</v>
@@ -34287,7 +34287,7 @@
         <v>685</v>
       </c>
       <c r="F1226">
-        <v>92.66018908476502</v>
+        <v>92.66018908476504</v>
       </c>
       <c r="G1226">
         <v>269.5423227044237</v>
@@ -34339,7 +34339,7 @@
         <v>685</v>
       </c>
       <c r="F1228">
-        <v>92.46081266930564</v>
+        <v>92.46081266930562</v>
       </c>
       <c r="G1228">
         <v>268.9623499820904</v>
@@ -34368,7 +34368,7 @@
         <v>0.146600305484867</v>
       </c>
       <c r="G1229">
-        <v>0.4264505311274622</v>
+        <v>0.4264505311274621</v>
       </c>
       <c r="H1229">
         <v>0.4266869236583521</v>
@@ -34391,7 +34391,7 @@
         <v>685</v>
       </c>
       <c r="F1230">
-        <v>92.46081266930564</v>
+        <v>92.46081266930562</v>
       </c>
       <c r="G1230">
         <v>268.9623499820904</v>
@@ -34767,7 +34767,7 @@
         <v>685</v>
       </c>
       <c r="E1256">
-        <v>2272.622265058751</v>
+        <v>2272.62226505875</v>
       </c>
       <c r="F1256">
         <v>2272.62226505875</v>
@@ -34796,10 +34796,10 @@
         <v>685</v>
       </c>
       <c r="E1257">
+        <v>44.29819541305768</v>
+      </c>
+      <c r="F1257">
         <v>44.2981954130577</v>
-      </c>
-      <c r="F1257">
-        <v>44.29819541305769</v>
       </c>
       <c r="G1257">
         <v>59.90413120727606</v>
@@ -34808,7 +34808,7 @@
         <v>59.84096549864496</v>
       </c>
       <c r="I1257">
-        <v>8.796473373980433</v>
+        <v>8.796473373980435</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
@@ -34837,7 +34837,7 @@
         <v>3051.889240430892</v>
       </c>
       <c r="I1258">
-        <v>448.6201420730022</v>
+        <v>448.6201420730021</v>
       </c>
     </row>
     <row r="1259" spans="1:9">
@@ -34860,13 +34860,13 @@
         <v>40.27108673914336</v>
       </c>
       <c r="G1259">
-        <v>54.45830109752369</v>
+        <v>54.45830109752368</v>
       </c>
       <c r="H1259">
         <v>54.40087772604087</v>
       </c>
       <c r="I1259">
-        <v>7.996793976345849</v>
+        <v>7.996793976345848</v>
       </c>
     </row>
     <row r="1260" spans="1:9">
@@ -34895,7 +34895,7 @@
         <v>3051.889240430892</v>
       </c>
       <c r="I1260">
-        <v>448.6201420730022</v>
+        <v>448.6201420730021</v>
       </c>
     </row>
     <row r="1261" spans="1:9">
@@ -35052,7 +35052,7 @@
         <v>685</v>
       </c>
       <c r="I1271">
-        <v>2649.215033802305</v>
+        <v>2649.215033802306</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
@@ -35086,7 +35086,7 @@
         <v>685</v>
       </c>
       <c r="I1273">
-        <v>2633.577871786404</v>
+        <v>2633.577871786405</v>
       </c>
     </row>
     <row r="1274" spans="1:9">
@@ -35103,7 +35103,7 @@
         <v>685</v>
       </c>
       <c r="I1274">
-        <v>46.94434709066675</v>
+        <v>46.94434709066674</v>
       </c>
     </row>
     <row r="1275" spans="1:9">
@@ -35120,7 +35120,7 @@
         <v>685</v>
       </c>
       <c r="I1275">
-        <v>2633.577871786404</v>
+        <v>2633.577871786405</v>
       </c>
     </row>
     <row r="1276" spans="1:9">
@@ -35376,7 +35376,7 @@
         <v>0.4388988581504467</v>
       </c>
       <c r="G1292">
-        <v>0.2752809426834959</v>
+        <v>0.2752809426834958</v>
       </c>
     </row>
     <row r="1293" spans="1:7">
@@ -35396,7 +35396,7 @@
         <v>11.47649526386085</v>
       </c>
       <c r="F1293">
-        <v>24.62821092666938</v>
+        <v>24.62821092666939</v>
       </c>
       <c r="G1293">
         <v>15.44701471558071</v>
@@ -35419,10 +35419,10 @@
         <v>0.5206024583039349</v>
       </c>
       <c r="F1294">
-        <v>1.117197093473864</v>
+        <v>1.117197093473865</v>
       </c>
       <c r="G1294">
-        <v>0.7007151268307167</v>
+        <v>0.7007151268307166</v>
       </c>
     </row>
     <row r="1295" spans="1:7">
@@ -35442,7 +35442,7 @@
         <v>11.47649526386085</v>
       </c>
       <c r="F1295">
-        <v>24.62821092666938</v>
+        <v>24.62821092666939</v>
       </c>
       <c r="G1295">
         <v>15.44701471558071</v>
@@ -35773,7 +35773,7 @@
         <v>0.2447758646770994</v>
       </c>
       <c r="F1312">
-        <v>0.2447758646770994</v>
+        <v>0.2447758646770995</v>
       </c>
       <c r="G1312">
         <v>0.04895517293541989</v>
@@ -35816,10 +35816,10 @@
         <v>685</v>
       </c>
       <c r="E1314">
-        <v>0.2225235133428176</v>
+        <v>0.2225235133428177</v>
       </c>
       <c r="F1314">
-        <v>0.2225235133428176</v>
+        <v>0.2225235133428177</v>
       </c>
       <c r="G1314">
         <v>0.04450470266856352</v>
@@ -35862,10 +35862,10 @@
         <v>685</v>
       </c>
       <c r="E1316">
-        <v>9.72094627423386</v>
+        <v>9.720946274233862</v>
       </c>
       <c r="F1316">
-        <v>9.72094627423386</v>
+        <v>9.720946274233862</v>
       </c>
       <c r="G1316">
         <v>1.944189254846772</v>
@@ -35891,7 +35891,7 @@
         <v>386.7699211244093</v>
       </c>
       <c r="G1317">
-        <v>77.35398422488184</v>
+        <v>77.35398422488186</v>
       </c>
     </row>
     <row r="1318" spans="1:7">
@@ -35908,7 +35908,7 @@
         <v>685</v>
       </c>
       <c r="E1318">
-        <v>0.0001289233070414697</v>
+        <v>0.0001289233070414698</v>
       </c>
       <c r="F1318">
         <v>0.0001289233070414698</v>
@@ -35934,7 +35934,7 @@
         <v>5.156932281658791</v>
       </c>
       <c r="F1319">
-        <v>5.156932281658789</v>
+        <v>5.156932281658792</v>
       </c>
       <c r="G1319">
         <v>1.031386456331758</v>
@@ -35960,7 +35960,7 @@
         <v>0.3867699211244094</v>
       </c>
       <c r="G1320">
-        <v>0.07735398422488188</v>
+        <v>0.07735398422488185</v>
       </c>
     </row>
     <row r="1321" spans="1:7">
@@ -36217,16 +36217,16 @@
         <v>685</v>
       </c>
       <c r="E1336">
-        <v>68.70268286651715</v>
+        <v>68.70268286651714</v>
       </c>
       <c r="F1336">
         <v>91.25882959333617</v>
       </c>
       <c r="G1336">
-        <v>62.97619992898653</v>
+        <v>62.97619992898652</v>
       </c>
       <c r="H1336">
-        <v>78.65806342332927</v>
+        <v>78.65806342332928</v>
       </c>
       <c r="I1336">
         <v>112.0535740108214</v>
@@ -36255,7 +36255,7 @@
         <v>2505.651115859996</v>
       </c>
       <c r="H1337">
-        <v>3129.589664195273</v>
+        <v>3129.589664195274</v>
       </c>
       <c r="I1337">
         <v>4458.305884967893</v>
@@ -36281,7 +36281,7 @@
         <v>0.0012103132530515</v>
       </c>
       <c r="G1338">
-        <v>0.0008352170386199984</v>
+        <v>0.0008352170386199986</v>
       </c>
       <c r="H1338">
         <v>0.001043196554731758</v>
@@ -36304,7 +36304,7 @@
         <v>685</v>
       </c>
       <c r="E1339">
-        <v>36.4465632373667</v>
+        <v>36.44656323736668</v>
       </c>
       <c r="F1339">
         <v>48.41253012206001</v>
@@ -36345,7 +36345,7 @@
         <v>3.129589664195273</v>
       </c>
       <c r="I1340">
-        <v>4.458305884967893</v>
+        <v>4.458305884967894</v>
       </c>
     </row>
     <row r="1341" spans="1:9">
@@ -37934,10 +37934,10 @@
         <v>230.5413825</v>
       </c>
       <c r="F1428">
-        <v>231.0399583297462</v>
+        <v>231.0399583297461</v>
       </c>
       <c r="G1428">
-        <v>281.5256065479156</v>
+        <v>281.5256065479155</v>
       </c>
       <c r="H1428">
         <v>288.5932859193077</v>
@@ -37992,10 +37992,10 @@
         <v>230.5413825</v>
       </c>
       <c r="F1430">
-        <v>231.0399583297462</v>
+        <v>231.0399583297461</v>
       </c>
       <c r="G1430">
-        <v>281.5256065479156</v>
+        <v>281.5256065479155</v>
       </c>
       <c r="H1430">
         <v>288.5932859193077</v>
@@ -38059,7 +38059,7 @@
         <v>3661.104485886197</v>
       </c>
       <c r="I1432">
-        <v>3159.816545942222</v>
+        <v>3159.816545942221</v>
       </c>
     </row>
     <row r="1433" spans="1:9">
@@ -38085,10 +38085,10 @@
         <v>4833.609808164894</v>
       </c>
       <c r="H1433">
-        <v>3609.002706832996</v>
+        <v>3609.002706832995</v>
       </c>
       <c r="I1433">
-        <v>3114.84867786853</v>
+        <v>3114.848677868529</v>
       </c>
     </row>
     <row r="1434" spans="1:9">
@@ -38108,13 +38108,13 @@
         <v>97.48331999999998</v>
       </c>
       <c r="F1434">
-        <v>77.08932</v>
+        <v>77.08931999999999</v>
       </c>
       <c r="G1434">
-        <v>86.13966446304391</v>
+        <v>86.1396644630439</v>
       </c>
       <c r="H1434">
-        <v>64.31596561387273</v>
+        <v>64.31596561387275</v>
       </c>
       <c r="I1434">
         <v>55.50965647072309</v>
@@ -38143,10 +38143,10 @@
         <v>4833.609808164894</v>
       </c>
       <c r="H1435">
-        <v>3609.002706832996</v>
+        <v>3609.002706832995</v>
       </c>
       <c r="I1435">
-        <v>3114.84867786853</v>
+        <v>3114.848677868529</v>
       </c>
     </row>
     <row r="1436" spans="1:9">
@@ -41329,16 +41329,16 @@
         <v>687</v>
       </c>
       <c r="E1600">
-        <v>216.373994983207</v>
+        <v>216.3739949832069</v>
       </c>
       <c r="F1600">
-        <v>167.9600902956521</v>
+        <v>167.9600902956522</v>
       </c>
       <c r="G1600">
-        <v>172.5515489511968</v>
+        <v>172.551548951197</v>
       </c>
       <c r="H1600">
-        <v>175.6844835396961</v>
+        <v>175.684483539696</v>
       </c>
       <c r="I1600">
         <v>177.8151350953464</v>
@@ -41358,16 +41358,16 @@
         <v>687</v>
       </c>
       <c r="E1601">
-        <v>216.373994983207</v>
+        <v>216.3739949832069</v>
       </c>
       <c r="F1601">
-        <v>167.9600902956521</v>
+        <v>167.9600902956522</v>
       </c>
       <c r="G1601">
-        <v>172.5515489511968</v>
+        <v>172.551548951197</v>
       </c>
       <c r="H1601">
-        <v>175.6844835396961</v>
+        <v>175.684483539696</v>
       </c>
       <c r="I1601">
         <v>177.8151350953464</v>
@@ -41387,16 +41387,16 @@
         <v>687</v>
       </c>
       <c r="E1602">
-        <v>216.373994983207</v>
+        <v>216.3739949832069</v>
       </c>
       <c r="F1602">
-        <v>167.9600902956521</v>
+        <v>167.9600902956522</v>
       </c>
       <c r="G1602">
-        <v>172.5515489511968</v>
+        <v>172.551548951197</v>
       </c>
       <c r="H1602">
-        <v>175.6844835396961</v>
+        <v>175.684483539696</v>
       </c>
       <c r="I1602">
         <v>177.8151350953464</v>
@@ -57698,7 +57698,7 @@
         <v>2012</v>
       </c>
       <c r="F814">
-        <v>119.5376732128515</v>
+        <v>119.5376732128514</v>
       </c>
     </row>
     <row r="815" spans="1:6">
@@ -58558,7 +58558,7 @@
         <v>2011</v>
       </c>
       <c r="F857">
-        <v>2.225353535655333</v>
+        <v>2.225353535655334</v>
       </c>
     </row>
     <row r="858" spans="1:6">
@@ -59418,7 +59418,7 @@
         <v>2012</v>
       </c>
       <c r="F900">
-        <v>268.3738225421013</v>
+        <v>268.3738225421014</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -59898,7 +59898,7 @@
         <v>2011</v>
       </c>
       <c r="F924">
-        <v>5848.722820855538</v>
+        <v>5848.722820855539</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -59918,7 +59918,7 @@
         <v>2012</v>
       </c>
       <c r="F925">
-        <v>1024.598823528478</v>
+        <v>1024.598823528477</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -59938,7 +59938,7 @@
         <v>2020</v>
       </c>
       <c r="F926">
-        <v>59.81472054955319</v>
+        <v>59.81472054955321</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -59958,7 +59958,7 @@
         <v>2050</v>
       </c>
       <c r="F927">
-        <v>435.5947924820575</v>
+        <v>435.5947924820576</v>
       </c>
     </row>
     <row r="928" spans="1:6">
